--- a/docs/McSOC Requirements.xlsx
+++ b/docs/McSOC Requirements.xlsx
@@ -15,12 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>The network monitor will be able to monitor the status of all devices via ping</t>
-  </si>
-  <si>
-    <t>The network monitor will be able to monitor the status of network devices via snmp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>The network monitor shall monitor the status of all devices via ping</t>
+  </si>
+  <si>
+    <t>The network monitor shall monitor the status of network devices via snmp</t>
+  </si>
+  <si>
+    <t>The network monitor shall monitor the cpu status of host devices.</t>
+  </si>
+  <si>
+    <t>The network monitor shall monitor the memory status of host devices.</t>
+  </si>
+  <si>
+    <t>The network monitor shall monitor the disk status of host devices.</t>
+  </si>
+  <si>
+    <t>The network monitor shall monitor the logging status of host devices.</t>
+  </si>
+  <si>
+    <t>The enterprise domain name service shall include the enterprise servers</t>
+  </si>
+  <si>
+    <t>The enterprise domain name service shall include the enterprise workstations</t>
+  </si>
+  <si>
+    <t>The enterprise domain name service shall not be available outside the network</t>
+  </si>
+  <si>
+    <t>The enterprise workstations shall be able to resolve Internet addresses</t>
+  </si>
+  <si>
+    <t>The enterprise servers shall be able to resolve Internet addresses</t>
+  </si>
+  <si>
+    <t>The soc servers shall be able to resolve Internet addresses</t>
+  </si>
+  <si>
+    <t>The enterprise workstations shall be able to resolve enterprise addresses</t>
+  </si>
+  <si>
+    <t>The enterprise servers shall be able to resolve enterprise addresses</t>
+  </si>
+  <si>
+    <t>The soc servers shall be able to resolve enterprise addresses</t>
   </si>
 </sst>
 </file>
@@ -35,6 +74,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -116,10 +156,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -139,6 +179,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/McSOC Requirements.xlsx
+++ b/docs/McSOC Requirements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>The network monitor shall monitor the status of all devices via ping</t>
   </si>
@@ -44,22 +44,34 @@
     <t>The enterprise domain name service shall not be available outside the network</t>
   </si>
   <si>
-    <t>The enterprise workstations shall be able to resolve Internet addresses</t>
-  </si>
-  <si>
-    <t>The enterprise servers shall be able to resolve Internet addresses</t>
-  </si>
-  <si>
-    <t>The soc servers shall be able to resolve Internet addresses</t>
-  </si>
-  <si>
-    <t>The enterprise workstations shall be able to resolve enterprise addresses</t>
-  </si>
-  <si>
-    <t>The enterprise servers shall be able to resolve enterprise addresses</t>
-  </si>
-  <si>
-    <t>The soc servers shall be able to resolve enterprise addresses</t>
+    <t>The enterprise workstations shall resolve Internet domain names</t>
+  </si>
+  <si>
+    <t>The enterprise servers shall resolve Internet domain names</t>
+  </si>
+  <si>
+    <t>The soc servers shall resolve Internet domain names</t>
+  </si>
+  <si>
+    <t>The enterprise workstations shall resolve enterprise domain names</t>
+  </si>
+  <si>
+    <t>The enterprise servers shall resolve enterprise domain names</t>
+  </si>
+  <si>
+    <t>The soc servers shall resolve enterprise domain names</t>
+  </si>
+  <si>
+    <t>The enterprise workstations shall authenticate enterprise users with an enterprise authentication server</t>
+  </si>
+  <si>
+    <t>The enterprise shall receive inbound email</t>
+  </si>
+  <si>
+    <t>The enterprise shall forward outbound email</t>
+  </si>
+  <si>
+    <t>Incoming email shall be scanned for virus</t>
   </si>
 </sst>
 </file>
@@ -156,15 +168,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A16"/>
+  <dimension ref="A2:A21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.5510204081633"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.2755102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
@@ -242,6 +254,31 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/McSOC Requirements.xlsx
+++ b/docs/McSOC Requirements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>The network monitor shall monitor the status of all devices via ping</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Incoming email shall be scanned for virus</t>
+  </si>
+  <si>
+    <t>Incoming email shall be analyzed to determine if it is spam</t>
+  </si>
+  <si>
+    <t>Incoming email identified as spam shall be dropped.</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,10 +173,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A21"/>
+  <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -281,6 +286,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/McSOC Requirements.xlsx
+++ b/docs/McSOC Requirements.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>The network monitor shall monitor the status of all devices via ping</t>
   </si>
   <si>
+    <t>Network Monitoring</t>
+  </si>
+  <si>
     <t>The network monitor shall monitor the status of network devices via snmp</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
     <t>The enterprise domain name service shall include the enterprise servers</t>
   </si>
   <si>
+    <t>DNS</t>
+  </si>
+  <si>
     <t>The enterprise domain name service shall include the enterprise workstations</t>
   </si>
   <si>
@@ -65,9 +71,15 @@
     <t>The enterprise workstations shall authenticate enterprise users with an enterprise authentication server</t>
   </si>
   <si>
+    <t>Authentication</t>
+  </si>
+  <si>
     <t>The enterprise shall receive inbound email</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>The enterprise shall forward outbound email</t>
   </si>
   <si>
@@ -78,6 +90,27 @@
   </si>
   <si>
     <t>Incoming email identified as spam shall be dropped.</t>
+  </si>
+  <si>
+    <t>The enterprise shall provide internal web services</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>The enterprise shall provide internal database services</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>The enterprise shall provide internal user home directories synced across domain workstations</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>The enterprise shall provide internal domain file sharing services</t>
   </si>
 </sst>
 </file>
@@ -92,6 +125,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,10 +207,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -190,110 +224,208 @@
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/McSOC Requirements.xlsx
+++ b/docs/McSOC Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="163" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="307" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>The network monitor shall monitor the status of all devices via ping</t>
   </si>
@@ -111,6 +111,36 @@
   </si>
   <si>
     <t>The enterprise shall provide internal domain file sharing services</t>
+  </si>
+  <si>
+    <t>External web sites requested from internal web clients will pass through a DMZ web proxy server</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Blacklisted external web sites will not be accessible from internal web clients</t>
+  </si>
+  <si>
+    <t>The proxy server will scan web traffic for malware.</t>
+  </si>
+  <si>
+    <t>The proxy server will block web traffic when malware is detected.</t>
+  </si>
+  <si>
+    <t>Internal web sites requested from external  web clients will pass through a DMZ reverse web proxy server</t>
+  </si>
+  <si>
+    <t>Reverse Proxy</t>
+  </si>
+  <si>
+    <t>The reverse proxy server will scan web traffic for malware.</t>
+  </si>
+  <si>
+    <t>Blacklisted external ip address will not be able to access the internal web server</t>
+  </si>
+  <si>
+    <t>The reverse proxy server will block web traffic when malware is detected.</t>
   </si>
 </sst>
 </file>
@@ -207,10 +237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -428,6 +458,70 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
